--- a/jvm-review/src/main/resources/字节码转excel.xlsx
+++ b/jvm-review/src/main/resources/字节码转excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\book\CodeReview\jvm-review\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD94136-327A-450E-8E16-18E0BE83B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947AD7E-D538-419B-BE3B-92917226B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC1F73E8-1E3E-4795-A409-5D3844971485}"/>
   </bookViews>
@@ -593,6 +593,62 @@
           </rPr>
           <t xml:space="preserve">33
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{C1FECE6E-B5BD-4A4F-9D6F-9C6982C445C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">访问标志
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{2C555599-13EA-4714-8E0B-69736BAF9818}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前类索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{58C6C9E1-20C7-4F08-BD62-9915272A7306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>父类</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{C1AA2D74-D68C-4D16-A56F-B677E4D9FC97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实现的接口，此处没有实现接口，所以都是00</t>
         </r>
       </text>
     </comment>
@@ -790,7 +846,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +1003,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -962,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,6 +1122,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,6 +1158,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322609</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>94514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B8F485-FD91-7538-F8F4-C0FD386ADBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="9923809" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,7 +1509,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2669,28 +2792,28 @@
       <c r="D26" s="8">
         <v>56</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
         <v>21</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
         <v>5</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31">
         <v>6</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
         <v>0</v>
       </c>
       <c r="M26" s="1">
@@ -3152,6 +3275,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>